--- a/TestDataSheet/data.xlsx
+++ b/TestDataSheet/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="94">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>abcbca12373124@gmail.com</t>
+  </si>
+  <si>
+    <t>abcbca12324356@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2154,7 +2157,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>38</v>
